--- a/programa/excel/Faturamento 05.05.2020.xlsx
+++ b/programa/excel/Faturamento 05.05.2020.xlsx
@@ -844,7 +844,10 @@
         <v>98</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
